--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1164"/>
+  <dimension ref="A1:I1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42492,6 +42492,43 @@
         </is>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1165"/>
+  <dimension ref="A1:I1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42529,6 +42529,43 @@
         </is>
       </c>
     </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1166"/>
+  <dimension ref="A1:I1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42566,6 +42566,43 @@
         </is>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1167"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42603,6 +42603,41 @@
         </is>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42638,6 +42638,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42675,6 +42675,41 @@
         </is>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42710,6 +42710,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42747,6 +42747,78 @@
         </is>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42819,6 +42819,78 @@
         </is>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42891,6 +42891,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42926,6 +42926,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42963,6 +42963,43 @@
         </is>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43000,6 +43000,43 @@
         </is>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43037,6 +43037,80 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43111,6 +43111,41 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43146,6 +43146,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71146,6 +71146,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1983" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71183,6 +71183,41 @@
         </is>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71218,6 +71218,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71253,6 +71253,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1986"/>
+  <dimension ref="A1:I1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71288,6 +71288,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1987" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1987"/>
+  <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71325,6 +71325,43 @@
         </is>
       </c>
     </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1988" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71362,6 +71362,43 @@
         </is>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1989" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71399,6 +71399,43 @@
         </is>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1990" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71436,6 +71436,43 @@
         </is>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1991" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1991"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71473,6 +71473,43 @@
         </is>
       </c>
     </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71510,6 +71510,41 @@
         </is>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>42800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71545,6 +71545,43 @@
         <v>42800</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1994" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71582,6 +71582,43 @@
         </is>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71619,6 +71619,43 @@
         </is>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1996" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71656,6 +71656,43 @@
         </is>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2752"/>
+  <dimension ref="A1:I2753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98118,6 +98118,43 @@
         </is>
       </c>
     </row>
+    <row r="2753">
+      <c r="A2753" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2753" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2753" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2753" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2753" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2753" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2753"/>
+  <dimension ref="A1:I2754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98155,6 +98155,43 @@
         </is>
       </c>
     </row>
+    <row r="2754">
+      <c r="A2754" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2754" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2754" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2754" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2754" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2754" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2754"/>
+  <dimension ref="A1:I2755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98192,6 +98192,41 @@
         </is>
       </c>
     </row>
+    <row r="2755">
+      <c r="A2755" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2755" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2755" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2755" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2755" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2755" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2755"/>
+  <dimension ref="A1:I2756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98227,6 +98227,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2756">
+      <c r="A2756" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2756" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2756" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2756" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2756" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2756" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2756"/>
+  <dimension ref="A1:I2757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98264,6 +98264,43 @@
         </is>
       </c>
     </row>
+    <row r="2757">
+      <c r="A2757" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2757" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2757" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2757" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2757" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2757" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2757"/>
+  <dimension ref="A1:I2758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98301,6 +98301,43 @@
         </is>
       </c>
     </row>
+    <row r="2758">
+      <c r="A2758" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2758" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2758" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2758" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2758" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2758" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2758"/>
+  <dimension ref="A1:I2761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98338,6 +98338,111 @@
         </is>
       </c>
     </row>
+    <row r="2759">
+      <c r="A2759" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2759" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2759" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2759" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2759" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2759" t="n">
+        <v>931200</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2760" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2760" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2760" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2760" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2760" t="n">
+        <v>357700</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2761" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2761" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2761" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2761" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2761" t="n">
+        <v>410000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2761"/>
+  <dimension ref="A1:I2762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98443,6 +98443,41 @@
         <v>410000</v>
       </c>
     </row>
+    <row r="2762">
+      <c r="A2762" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2762" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2762" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2762" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2762" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2762" t="n">
+        <v>93700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2762"/>
+  <dimension ref="A1:I2763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98478,6 +98478,41 @@
         <v>93700</v>
       </c>
     </row>
+    <row r="2763">
+      <c r="A2763" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2763" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2763" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2763" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2763" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2763" t="n">
+        <v>32500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7211.xlsx
+++ b/data/7211.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2763"/>
+  <dimension ref="A1:I2766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98513,6 +98513,113 @@
         <v>32500</v>
       </c>
     </row>
+    <row r="2764">
+      <c r="A2764" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2764" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2764" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2764" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2764" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2764" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2764" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2765" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2765" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2765" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2765" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2765" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="D2766" t="inlineStr">
+        <is>
+          <t>TAFI</t>
+        </is>
+      </c>
+      <c r="E2766" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2766" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2766" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2766" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2766" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
